--- a/GitCheatSheet.xlsx
+++ b/GitCheatSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>git status</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Switched to develop</t>
+  </si>
+  <si>
+    <t>git config --global core.editor "vim"</t>
+  </si>
+  <si>
+    <t>Set core.editor to vim</t>
   </si>
 </sst>
 </file>
@@ -480,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G27"/>
+  <dimension ref="C3:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,6 +768,17 @@
         <v>44</v>
       </c>
     </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E28" s="1">
+        <v>26</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GitCheatSheet.xlsx
+++ b/GitCheatSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>git status</t>
   </si>
@@ -160,6 +160,36 @@
   </si>
   <si>
     <t>Set core.editor to vim</t>
+  </si>
+  <si>
+    <t>git branch -v</t>
+  </si>
+  <si>
+    <t>This shows names of branch with their commit hash and commit message</t>
+  </si>
+  <si>
+    <t>git branch --merged</t>
+  </si>
+  <si>
+    <t>git branch --no-merged</t>
+  </si>
+  <si>
+    <t>Already merged branches</t>
+  </si>
+  <si>
+    <t>Not already merged branches</t>
+  </si>
+  <si>
+    <t>git branch -d develop</t>
+  </si>
+  <si>
+    <t>Gives error if develop is not merged</t>
+  </si>
+  <si>
+    <t>git branch -D develop</t>
+  </si>
+  <si>
+    <t>No error and branch gets deleted</t>
   </si>
 </sst>
 </file>
@@ -486,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G28"/>
+  <dimension ref="C3:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,6 +809,61 @@
         <v>46</v>
       </c>
     </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E29" s="1">
+        <v>27</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E30" s="1">
+        <v>28</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E31" s="1">
+        <v>29</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E32" s="1">
+        <v>30</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E33" s="1">
+        <v>31</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GitCheatSheet.xlsx
+++ b/GitCheatSheet.xlsx
@@ -189,7 +189,7 @@
     <t>git branch -D develop</t>
   </si>
   <si>
-    <t>No error and branch gets deleted</t>
+    <t xml:space="preserve">No error and branch gets </t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>

--- a/GitCheatSheet.xlsx
+++ b/GitCheatSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>git status</t>
   </si>
@@ -189,7 +189,19 @@
     <t>git branch -D develop</t>
   </si>
   <si>
-    <t xml:space="preserve">No error and branch gets </t>
+    <t>No error and branch gets deleted</t>
+  </si>
+  <si>
+    <t>git branch -d origin develop</t>
+  </si>
+  <si>
+    <t>git push origin develop</t>
+  </si>
+  <si>
+    <t>Deletes develop branch from github website</t>
+  </si>
+  <si>
+    <t>pushes develop branch to github</t>
   </si>
 </sst>
 </file>
@@ -516,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G33"/>
+  <dimension ref="C3:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,6 +876,28 @@
         <v>56</v>
       </c>
     </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E34" s="1">
+        <v>32</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E35" s="1">
+        <v>33</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GitCheatSheet.xlsx
+++ b/GitCheatSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>git status</t>
   </si>
@@ -192,16 +192,22 @@
     <t>No error and branch gets deleted</t>
   </si>
   <si>
-    <t>git branch -d origin develop</t>
-  </si>
-  <si>
     <t>git push origin develop</t>
   </si>
   <si>
     <t>Deletes develop branch from github website</t>
   </si>
   <si>
-    <t>pushes develop branch to github</t>
+    <t>git push origin develop:coding</t>
+  </si>
+  <si>
+    <t>You can write the name you want of branch in place of word "coding"</t>
+  </si>
+  <si>
+    <t>Pushes develop branch to github</t>
+  </si>
+  <si>
+    <t>git push -d origin develop</t>
   </si>
 </sst>
 </file>
@@ -528,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G35"/>
+  <dimension ref="C3:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,10 +887,10 @@
         <v>32</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="5:7" x14ac:dyDescent="0.3">
@@ -892,9 +898,20 @@
         <v>33</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G35" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E36" s="1">
+        <v>34</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>60</v>
       </c>
     </row>
